--- a/data/pca/factorExposure/factorExposure_2012-07-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-31.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002191755414110812</v>
+        <v>0.001512379949671573</v>
       </c>
       <c r="C2">
-        <v>-0.0288013227634612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02799850072690316</v>
+      </c>
+      <c r="D2">
+        <v>-0.005566963410955842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002537001869946906</v>
+        <v>-0.007284230892905489</v>
       </c>
       <c r="C4">
-        <v>-0.09013523254293025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08388637346144678</v>
+      </c>
+      <c r="D4">
+        <v>-0.06429343858396648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.007874823114705349</v>
+        <v>-0.0157933250018678</v>
       </c>
       <c r="C6">
-        <v>-0.1157125514642587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.1198887432914936</v>
+      </c>
+      <c r="D6">
+        <v>-0.02024563154338306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0007301471128457874</v>
+        <v>-0.004528090885168757</v>
       </c>
       <c r="C7">
-        <v>-0.05414158017335746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05911168764199543</v>
+      </c>
+      <c r="D7">
+        <v>-0.03324416616776897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003675958149394062</v>
+        <v>-0.005212667847241151</v>
       </c>
       <c r="C8">
-        <v>-0.04224407920011703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.03667970074949212</v>
+      </c>
+      <c r="D8">
+        <v>-0.03484908926468269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00174809556614888</v>
+        <v>-0.006512444478081662</v>
       </c>
       <c r="C9">
-        <v>-0.07534812407374541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.07399861593431804</v>
+      </c>
+      <c r="D9">
+        <v>-0.06986046169778189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0005172393479050819</v>
+        <v>-0.002197594854598366</v>
       </c>
       <c r="C10">
-        <v>-0.0447935769536944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04958322740544762</v>
+      </c>
+      <c r="D10">
+        <v>0.1849855141914309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002094312582772772</v>
+        <v>-0.007119839288035453</v>
       </c>
       <c r="C11">
-        <v>-0.08853705069975641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0822027435842705</v>
+      </c>
+      <c r="D11">
+        <v>-0.06673993721359149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001070627706782848</v>
+        <v>-0.00517482882943295</v>
       </c>
       <c r="C12">
-        <v>-0.07015901337535398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.067538496873596</v>
+      </c>
+      <c r="D12">
+        <v>-0.04771879484209429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.004579546962439233</v>
+        <v>-0.009978133808611414</v>
       </c>
       <c r="C13">
-        <v>-0.07482951941184056</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07067643151868541</v>
+      </c>
+      <c r="D13">
+        <v>-0.05516888593481611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0008989640084843523</v>
+        <v>-0.0007785555729378549</v>
       </c>
       <c r="C14">
-        <v>-0.04634116565178999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04375938089410161</v>
+      </c>
+      <c r="D14">
+        <v>-0.01190068781234681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00364621187558764</v>
+        <v>-0.007032558774660354</v>
       </c>
       <c r="C15">
-        <v>-0.04022971232711865</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.04074317698642105</v>
+      </c>
+      <c r="D15">
+        <v>-0.02468131241994583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002214003149771067</v>
+        <v>-0.005982172725230821</v>
       </c>
       <c r="C16">
-        <v>-0.07300615059488984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.06670397717299503</v>
+      </c>
+      <c r="D16">
+        <v>-0.05700769610932859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.005453043146683862</v>
+        <v>-0.00977517665077403</v>
       </c>
       <c r="C20">
-        <v>-0.07289461550344815</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.06477712096974544</v>
+      </c>
+      <c r="D20">
+        <v>-0.04923848442527736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006583791765170972</v>
+        <v>-0.009311570567618076</v>
       </c>
       <c r="C21">
-        <v>-0.02093777357162047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01985400203598238</v>
+      </c>
+      <c r="D21">
+        <v>-0.04081878370938058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01696274928295768</v>
+        <v>0.007462734353508087</v>
       </c>
       <c r="C22">
-        <v>-0.08796818050670749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.08547528115104887</v>
+      </c>
+      <c r="D22">
+        <v>-0.113501338382181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01671438431924501</v>
+        <v>0.007187696084533313</v>
       </c>
       <c r="C23">
-        <v>-0.08832737730985031</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.08589449345117847</v>
+      </c>
+      <c r="D23">
+        <v>-0.1146417649843898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001516360328683012</v>
+        <v>-0.006836488589206001</v>
       </c>
       <c r="C24">
-        <v>-0.08037916729601004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.0784533796271154</v>
+      </c>
+      <c r="D24">
+        <v>-0.06576658890248732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.0001951887235261108</v>
+        <v>-0.004529577421584698</v>
       </c>
       <c r="C25">
-        <v>-0.08466136495167974</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.07978452301769418</v>
+      </c>
+      <c r="D25">
+        <v>-0.06284695829058037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.0006066275553616952</v>
+        <v>-0.00408567079414747</v>
       </c>
       <c r="C26">
-        <v>-0.03807135323991743</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.040036251565191</v>
+      </c>
+      <c r="D26">
+        <v>-0.02076038376048608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006696646377273492</v>
+        <v>0.002032425513430319</v>
       </c>
       <c r="C28">
-        <v>-0.09332384539739917</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.09835540338298336</v>
+      </c>
+      <c r="D28">
+        <v>0.3275176181486545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001033623589617438</v>
+        <v>-0.003647929253218503</v>
       </c>
       <c r="C29">
-        <v>-0.04691289926168177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04731743432461285</v>
+      </c>
+      <c r="D29">
+        <v>-0.008993365611053889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.001656035669670778</v>
+        <v>-0.01114617353139463</v>
       </c>
       <c r="C30">
-        <v>-0.1418567034477174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.1419685736110003</v>
+      </c>
+      <c r="D30">
+        <v>-0.1073066599919997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.003702774106645221</v>
+        <v>-0.006768968724376893</v>
       </c>
       <c r="C31">
-        <v>-0.04411307153602717</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.0446709533812138</v>
+      </c>
+      <c r="D31">
+        <v>-0.02893076662167791</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.001009139659039669</v>
+        <v>-0.004265484883509986</v>
       </c>
       <c r="C32">
-        <v>-0.04012572743074373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.03803700601720019</v>
+      </c>
+      <c r="D32">
+        <v>-0.01482340306923864</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003332466479434339</v>
+        <v>-0.00990022879693921</v>
       </c>
       <c r="C33">
-        <v>-0.09080968411092034</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.09229355044121709</v>
+      </c>
+      <c r="D33">
+        <v>-0.06057794480042456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.001412433966081235</v>
+        <v>-0.00555840896662723</v>
       </c>
       <c r="C34">
-        <v>-0.06067083764163145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.05974984804626061</v>
+      </c>
+      <c r="D34">
+        <v>-0.05679998176647488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002890133967449648</v>
+        <v>-0.005403363903890374</v>
       </c>
       <c r="C35">
-        <v>-0.04014732028267279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.03985474287167372</v>
+      </c>
+      <c r="D35">
+        <v>-0.01342421511820825</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003913654263884131</v>
+        <v>0.001343203207362597</v>
       </c>
       <c r="C36">
-        <v>-0.02263130253997217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.0253192363932854</v>
+      </c>
+      <c r="D36">
+        <v>-0.01967033709823495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.006000320915883765</v>
+        <v>-0.009070744941310343</v>
       </c>
       <c r="C38">
-        <v>-0.03820436788620578</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.03890233633727652</v>
+      </c>
+      <c r="D38">
+        <v>-0.01123170211630732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.006561233437896339</v>
+        <v>-0.0001144557335755902</v>
       </c>
       <c r="C39">
-        <v>-0.1219006988611899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1142731809079833</v>
+      </c>
+      <c r="D39">
+        <v>-0.08354271906635941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.002156513562939597</v>
+        <v>-0.003037301915590298</v>
       </c>
       <c r="C40">
-        <v>-0.08576200772657508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08532359963958115</v>
+      </c>
+      <c r="D40">
+        <v>-0.007961852381626239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.004985828836024263</v>
+        <v>-0.007997769363521055</v>
       </c>
       <c r="C41">
-        <v>-0.03982782369864089</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.04170709199498995</v>
+      </c>
+      <c r="D41">
+        <v>-0.04342465966212605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.0004378222716339573</v>
+        <v>-0.00457225795752531</v>
       </c>
       <c r="C43">
-        <v>-0.05377075004933415</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.05373550242184984</v>
+      </c>
+      <c r="D43">
+        <v>-0.02698536325680028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003726278290376729</v>
+        <v>-0.003053737043512648</v>
       </c>
       <c r="C44">
-        <v>-0.1187882092106759</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1036629015711742</v>
+      </c>
+      <c r="D44">
+        <v>-0.06199313972331498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0005759934998782679</v>
+        <v>-0.0009624845139848794</v>
       </c>
       <c r="C46">
-        <v>-0.03557857318512903</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03147063823403584</v>
+      </c>
+      <c r="D46">
+        <v>-0.03411636328866726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001125119729044135</v>
+        <v>-0.003426723824166637</v>
       </c>
       <c r="C47">
-        <v>-0.0368147544379177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03558926823690398</v>
+      </c>
+      <c r="D47">
+        <v>-0.01965554769658286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.005695482830715744</v>
+        <v>-0.007978386463071427</v>
       </c>
       <c r="C48">
-        <v>-0.03000774451430785</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.032129809360309</v>
+      </c>
+      <c r="D48">
+        <v>-0.02729431709445897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.009799428262673349</v>
+        <v>-0.02023394746251884</v>
       </c>
       <c r="C49">
-        <v>-0.1896255513547695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.1877700425270768</v>
+      </c>
+      <c r="D49">
+        <v>-0.01188605505648685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.00140544829069605</v>
+        <v>-0.004587496035826184</v>
       </c>
       <c r="C50">
-        <v>-0.03884206235180695</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.04314418918183693</v>
+      </c>
+      <c r="D50">
+        <v>-0.03836057779972356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001651274680584289</v>
+        <v>-0.004159643598198955</v>
       </c>
       <c r="C51">
-        <v>-0.02970744941873116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.02745361937351654</v>
+      </c>
+      <c r="D51">
+        <v>-0.02382343254882361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01274299667105252</v>
+        <v>-0.02315935842201173</v>
       </c>
       <c r="C53">
-        <v>-0.17587426045111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.1715700557839479</v>
+      </c>
+      <c r="D53">
+        <v>-0.01897538194468613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003533808806204323</v>
+        <v>-0.00978591353344779</v>
       </c>
       <c r="C54">
-        <v>-0.05065414825618692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.05802860102082627</v>
+      </c>
+      <c r="D54">
+        <v>-0.03848738105819449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00503511137885829</v>
+        <v>-0.01092948676974617</v>
       </c>
       <c r="C55">
-        <v>-0.1147639624670547</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.1089141057730917</v>
+      </c>
+      <c r="D55">
+        <v>-0.03205081563529583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01283255444724965</v>
+        <v>-0.02249674428673781</v>
       </c>
       <c r="C56">
-        <v>-0.1772286029643244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.1720495995473267</v>
+      </c>
+      <c r="D56">
+        <v>-0.0149980799345367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003926473794099578</v>
+        <v>-0.01820180168560814</v>
       </c>
       <c r="C58">
-        <v>-0.1033886761883102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1054967434015352</v>
+      </c>
+      <c r="D58">
+        <v>-0.05627890156763737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.0009398611586299804</v>
+        <v>-0.01044482053352345</v>
       </c>
       <c r="C59">
-        <v>-0.1393006163947459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1659539267406993</v>
+      </c>
+      <c r="D59">
+        <v>0.3515929511951004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.01359534590737437</v>
+        <v>-0.02797735924238803</v>
       </c>
       <c r="C60">
-        <v>-0.2181113773472426</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.2256253875047607</v>
+      </c>
+      <c r="D60">
+        <v>-0.01975863811882919</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.00651249262377471</v>
+        <v>0.0009671547226159678</v>
       </c>
       <c r="C61">
-        <v>-0.1003192951972077</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.09518337562111494</v>
+      </c>
+      <c r="D61">
+        <v>-0.06067649410243306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1518221594447706</v>
+        <v>-0.1555110053197547</v>
       </c>
       <c r="C62">
-        <v>-0.1059776554658552</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.1026896092689717</v>
+      </c>
+      <c r="D62">
+        <v>-0.01794750519084737</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003221114434846505</v>
+        <v>-0.006936273215836754</v>
       </c>
       <c r="C63">
-        <v>-0.05455182959939182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.05340161638018877</v>
+      </c>
+      <c r="D63">
+        <v>-0.03238715372291068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01087962042246928</v>
+        <v>-0.01741197832431091</v>
       </c>
       <c r="C64">
-        <v>-0.1129653394462835</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.111485840616017</v>
+      </c>
+      <c r="D64">
+        <v>-0.05008927580025934</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.01102243296854074</v>
+        <v>-0.01847474909141858</v>
       </c>
       <c r="C65">
-        <v>-0.1247560705067908</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.1270782199774822</v>
+      </c>
+      <c r="D65">
+        <v>-0.02376582834296156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.00501166913696837</v>
+        <v>-0.01461095613418218</v>
       </c>
       <c r="C66">
-        <v>-0.1664056327281603</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1620854785731164</v>
+      </c>
+      <c r="D66">
+        <v>-0.115569488923412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.01042352856302923</v>
+        <v>-0.01580532763315962</v>
       </c>
       <c r="C67">
-        <v>-0.07217823003057143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.0724402640417602</v>
+      </c>
+      <c r="D67">
+        <v>-0.02409150469330656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004758696323647507</v>
+        <v>-0.0003345620741029813</v>
       </c>
       <c r="C68">
-        <v>-0.07103891239789784</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.08001377357885323</v>
+      </c>
+      <c r="D68">
+        <v>0.2622075377391586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001879561206508154</v>
+        <v>-0.006343408231302011</v>
       </c>
       <c r="C69">
-        <v>-0.05574947264139076</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.05337282983117977</v>
+      </c>
+      <c r="D69">
+        <v>-0.0350276503278199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001647271934284823</v>
+        <v>-0.002735942126744171</v>
       </c>
       <c r="C70">
-        <v>-0.002462108856436693</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.009092559739908804</v>
+      </c>
+      <c r="D70">
+        <v>0.001428747869998303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001385511883899403</v>
+        <v>-0.005083685527948802</v>
       </c>
       <c r="C71">
-        <v>-0.0773527003442587</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.08560698232308163</v>
+      </c>
+      <c r="D71">
+        <v>0.3045689447039975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.009996794367253602</v>
+        <v>-0.01946544008889294</v>
       </c>
       <c r="C72">
-        <v>-0.1532041613396234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.1580460076160087</v>
+      </c>
+      <c r="D72">
+        <v>-0.009225299791707095</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01839629956555387</v>
+        <v>-0.03349406444076099</v>
       </c>
       <c r="C73">
-        <v>-0.2903299462016498</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.285036377599238</v>
+      </c>
+      <c r="D73">
+        <v>-0.05525175179941902</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.002933781648258154</v>
+        <v>-0.002783986549982598</v>
       </c>
       <c r="C74">
-        <v>-0.1073771123499041</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.1034439303198973</v>
+      </c>
+      <c r="D74">
+        <v>-0.03191621107913592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.003411625428280324</v>
+        <v>-0.01302571534345015</v>
       </c>
       <c r="C75">
-        <v>-0.120286804276006</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.1175049145489316</v>
+      </c>
+      <c r="D75">
+        <v>-0.02520677875997297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01500220807004064</v>
+        <v>-0.02343218640105999</v>
       </c>
       <c r="C76">
-        <v>-0.1510325073767325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.1446946497807424</v>
+      </c>
+      <c r="D76">
+        <v>-0.05466012938591525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01255476458495708</v>
+        <v>-0.02172046297980265</v>
       </c>
       <c r="C77">
-        <v>-0.1099938606644047</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1063337527298677</v>
+      </c>
+      <c r="D77">
+        <v>-0.0477336024096193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.007692145831451046</v>
+        <v>-0.01526901894158766</v>
       </c>
       <c r="C78">
-        <v>-0.09050928717367367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.101557419658668</v>
+      </c>
+      <c r="D78">
+        <v>-0.07809989564771784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.03167276545340086</v>
+        <v>-0.03991317399830435</v>
       </c>
       <c r="C79">
-        <v>-0.1685085032969554</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.156590155421405</v>
+      </c>
+      <c r="D79">
+        <v>-0.02651003536908863</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.007993447734728666</v>
+        <v>-0.01007527034669417</v>
       </c>
       <c r="C80">
-        <v>-0.04525274131433465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.03956120436707112</v>
+      </c>
+      <c r="D80">
+        <v>-0.02987258204696113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.009629268775658168</v>
+        <v>-0.01754584478838785</v>
       </c>
       <c r="C81">
-        <v>-0.1368506623142951</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.130981280544674</v>
+      </c>
+      <c r="D81">
+        <v>-0.03521109362740196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01190799906140061</v>
+        <v>-0.02117674680801886</v>
       </c>
       <c r="C82">
-        <v>-0.1453412714596179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.1367644618779141</v>
+      </c>
+      <c r="D82">
+        <v>-0.03701420288083998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004757384803022756</v>
+        <v>-0.01224506337475146</v>
       </c>
       <c r="C83">
-        <v>-0.06959434399354233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06553521552198907</v>
+      </c>
+      <c r="D83">
+        <v>-0.04480790789530415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004274662863792287</v>
+        <v>-0.007256338471205403</v>
       </c>
       <c r="C84">
-        <v>-0.0246277373062819</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.03493392947032709</v>
+      </c>
+      <c r="D84">
+        <v>-0.01302008534279476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02281623679497492</v>
+        <v>-0.03022894637485482</v>
       </c>
       <c r="C85">
-        <v>-0.1388595203314798</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.1217224583788723</v>
+      </c>
+      <c r="D85">
+        <v>-0.0395066279188526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.000512163438183159</v>
+        <v>-0.004244234883915171</v>
       </c>
       <c r="C86">
-        <v>-0.05025476114175326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.05132506833538438</v>
+      </c>
+      <c r="D86">
+        <v>-0.02144769975002912</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.006894631998333167</v>
+        <v>-0.01344373477080509</v>
       </c>
       <c r="C87">
-        <v>-0.1419380920572865</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.129319488274616</v>
+      </c>
+      <c r="D87">
+        <v>-0.07253249860386082</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.006396405300412973</v>
+        <v>0.00251761663365785</v>
       </c>
       <c r="C88">
-        <v>-0.06920667624473339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06340640619304541</v>
+      </c>
+      <c r="D88">
+        <v>-0.02754726515797551</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01023870574343299</v>
+        <v>0.00155448256050503</v>
       </c>
       <c r="C89">
-        <v>-0.113029362866159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.1280267653660806</v>
+      </c>
+      <c r="D89">
+        <v>0.3217302434093448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0009780958657345622</v>
+        <v>-0.005707737746255262</v>
       </c>
       <c r="C90">
-        <v>-0.102386685069491</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.1104584928753409</v>
+      </c>
+      <c r="D90">
+        <v>0.3154853937134614</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.004715585729579801</v>
+        <v>-0.0115842575206741</v>
       </c>
       <c r="C91">
-        <v>-0.1031720895242447</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.09877346727503071</v>
+      </c>
+      <c r="D91">
+        <v>-0.0269121075599348</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005871091573657955</v>
+        <v>-0.0003875834972320449</v>
       </c>
       <c r="C92">
-        <v>-0.1159005919846543</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.122906343208022</v>
+      </c>
+      <c r="D92">
+        <v>0.3271866446615377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002133593836366825</v>
+        <v>-0.003570921496412765</v>
       </c>
       <c r="C93">
-        <v>-0.09272961186592511</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.1021773538932425</v>
+      </c>
+      <c r="D93">
+        <v>0.3007827192691734</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01465786489213793</v>
+        <v>-0.02304408175989126</v>
       </c>
       <c r="C94">
-        <v>-0.1530526961111519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.1349178589275583</v>
+      </c>
+      <c r="D94">
+        <v>-0.0519347254176329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.01156421709919529</v>
+        <v>-0.01833389440823483</v>
       </c>
       <c r="C95">
-        <v>-0.1253571582469923</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1215726959125778</v>
+      </c>
+      <c r="D95">
+        <v>-0.06689579045821727</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0215568838274155</v>
+        <v>-0.03903710019421525</v>
       </c>
       <c r="C97">
-        <v>-0.2010888250889023</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.2253058335233327</v>
+      </c>
+      <c r="D97">
+        <v>0.009406385361520362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.02102444850155672</v>
+        <v>-0.04161083944599184</v>
       </c>
       <c r="C98">
-        <v>-0.2678331396157507</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.2648493524525877</v>
+      </c>
+      <c r="D98">
+        <v>-0.0313797733954829</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9851479404084077</v>
+        <v>-0.9792706987809492</v>
       </c>
       <c r="C99">
-        <v>0.06669740727148261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.1305154713249406</v>
+      </c>
+      <c r="D99">
+        <v>0.02532349350684073</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001010843339297636</v>
+        <v>-0.003639153299109099</v>
       </c>
       <c r="C101">
-        <v>-0.04716825966163719</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.04750388671434319</v>
+      </c>
+      <c r="D101">
+        <v>-0.009653460070487903</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
